--- a/store/train_data.xlsx
+++ b/store/train_data.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/store/train_data.xlsx
+++ b/store/train_data.xlsx
@@ -480,12 +480,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>WEI (Area)</t>
+          <t>WEI_Area</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WEI (People)</t>
+          <t>WEI_People</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
